--- a/data/TP_Final_Especificacion_1.xlsx
+++ b/data/TP_Final_Especificacion_1.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="136">
   <si>
     <t>Campo</t>
   </si>
@@ -404,6 +404,9 @@
     <t>Aguilares</t>
   </si>
   <si>
+    <t>Tandil</t>
+  </si>
+  <si>
     <t>Jesús María</t>
   </si>
   <si>
@@ -522,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -567,6 +570,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -15246,20 +15252,20 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>111</v>
+      <c r="A6" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -15285,29 +15291,29 @@
         <v>40</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
